--- a/downloads/students.xlsx
+++ b/downloads/students.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>学号</t>
   </si>
@@ -44,13 +44,10 @@
     <t>男</t>
   </si>
   <si>
-    <t>颜旭</t>
+    <t>董畅</t>
   </si>
   <si>
     <t>女</t>
-  </si>
-  <si>
-    <t>董畅</t>
   </si>
   <si>
     <t>苟淑兰</t>
@@ -950,7 +947,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3017218101</v>
+        <v>3017218102</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1018,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2017</v>
@@ -1027,12 +1024,12 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3017218102</v>
+        <v>3017218103</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1041,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>2017</v>
@@ -1055,16 +1052,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3017218103</v>
+        <v>3017218104</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2017</v>
@@ -1073,12 +1070,12 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3017218104</v>
+        <v>3017218105</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1087,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>2017</v>
@@ -1096,12 +1093,12 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3017218105</v>
+        <v>3017218106</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1110,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2017</v>
@@ -1119,12 +1116,12 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3017218106</v>
+        <v>3017218107</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1133,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>2017</v>
@@ -1142,12 +1139,12 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3017218107</v>
+        <v>3017218108</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1156,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>2017</v>
@@ -1165,21 +1162,21 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>3017218108</v>
+        <v>3017218109</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2017</v>
@@ -1188,21 +1185,21 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3017218109</v>
+        <v>3017218110</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>2017</v>
@@ -1211,21 +1208,21 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3017218110</v>
+        <v>3017218111</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>2017</v>
@@ -1234,21 +1231,21 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3017218111</v>
+        <v>3017218112</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>2017</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>3017218112</v>
+        <v>3017218113</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1271,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>2017</v>
@@ -1280,12 +1277,12 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>3017218113</v>
+        <v>3017218114</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1294,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2017</v>
@@ -1303,12 +1300,12 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3017218114</v>
+        <v>3017218115</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1317,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>2017</v>
@@ -1326,12 +1323,12 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3017218115</v>
+        <v>3017218116</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1340,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>2017</v>
@@ -1349,12 +1346,12 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>3017218116</v>
+        <v>3017218117</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1363,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2017</v>
@@ -1377,16 +1374,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3017218117</v>
+        <v>3017218118</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>2017</v>
@@ -1395,21 +1392,21 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>3017218118</v>
+        <v>3017218119</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>2017</v>
@@ -1418,12 +1415,12 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>3017218119</v>
+        <v>3017218126</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1432,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2017</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3017218126</v>
+        <v>3017218128</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1455,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>2017</v>
@@ -1464,12 +1461,12 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3017218128</v>
+        <v>3017218132</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1478,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>2017</v>
@@ -1487,12 +1484,12 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>3017218132</v>
+        <v>3017218133</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1501,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>2017</v>
@@ -1510,21 +1507,21 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>3017218133</v>
+        <v>3017218134</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>2017</v>
@@ -1533,12 +1530,12 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>3017218134</v>
+        <v>3017218135</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1547,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2017</v>
@@ -1556,21 +1553,21 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>3017218135</v>
+        <v>3017218139</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>2017</v>
@@ -1579,12 +1576,12 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>3017218139</v>
+        <v>3017218141</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1593,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>2017</v>
@@ -1602,12 +1599,12 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>3017218141</v>
+        <v>3017218142</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1616,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>2017</v>
@@ -1625,21 +1622,21 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>3017218142</v>
+        <v>3017218143</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>2017</v>
@@ -1648,21 +1645,21 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>3017218143</v>
+        <v>3017218144</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>2017</v>
@@ -1671,21 +1668,21 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>3017218144</v>
+        <v>3017218145</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>2017</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>3017218145</v>
+        <v>3017218146</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1708,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>2017</v>
@@ -1717,12 +1714,12 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>3017218146</v>
+        <v>3017218147</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -1731,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>2017</v>
@@ -1740,21 +1737,21 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>3017218147</v>
+        <v>3017218149</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>2017</v>
@@ -1763,12 +1760,12 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>3017218149</v>
+        <v>3017218150</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -1777,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>2017</v>
@@ -1786,12 +1783,12 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>3017218150</v>
+        <v>3017218151</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1800,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>2017</v>
@@ -1809,12 +1806,12 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>3017218151</v>
+        <v>3017218152</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -1823,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>2017</v>
@@ -1832,12 +1829,12 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>3017218152</v>
+        <v>3017218153</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1846,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>2017</v>
@@ -1855,12 +1852,12 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>3017218153</v>
+        <v>3017218154</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -1869,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>2017</v>
@@ -1878,35 +1875,35 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>3017218154</v>
+        <v>3016218105</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>3016218105</v>
+        <v>3016218106</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -1915,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>2016</v>
@@ -1924,12 +1921,12 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>3016218106</v>
+        <v>3016218107</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -1938,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>2016</v>
@@ -1947,12 +1944,12 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>3016218107</v>
+        <v>3016218108</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -1961,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>2016</v>
@@ -1970,21 +1967,21 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>3016218108</v>
+        <v>3016218109</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>2016</v>
@@ -1993,21 +1990,21 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>3016218109</v>
+        <v>3016218110</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>2016</v>
@@ -2016,21 +2013,21 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>3016218110</v>
+        <v>3016218111</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>2016</v>
@@ -2039,12 +2036,12 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>3016218111</v>
+        <v>3016218112</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -2062,12 +2059,12 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>3016218112</v>
+        <v>3016218113</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -2076,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>2016</v>
@@ -2085,12 +2082,12 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>3016218113</v>
+        <v>3016218114</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
@@ -2099,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>2016</v>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>3016218114</v>
+        <v>3016218115</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
@@ -2122,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E51">
         <v>2016</v>
@@ -2131,21 +2128,21 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>3016218115</v>
+        <v>3016218116</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>2016</v>
@@ -2154,18 +2151,18 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>3016218116</v>
+        <v>3016218118</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>14</v>
@@ -2177,21 +2174,21 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>3016218118</v>
+        <v>3016218119</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>2016</v>
@@ -2200,12 +2197,12 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>3016218119</v>
+        <v>3016218120</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -2214,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>2016</v>
@@ -2223,21 +2220,21 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>3016218120</v>
+        <v>3016218121</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>2016</v>
@@ -2246,12 +2243,12 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>3016218121</v>
+        <v>3016218122</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -2260,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>2016</v>
@@ -2269,12 +2266,12 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>3016218122</v>
+        <v>3016218123</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -2283,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58">
         <v>2016</v>
@@ -2292,21 +2289,21 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>3016218123</v>
+        <v>3016218124</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <v>2016</v>
@@ -2315,12 +2312,12 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>3016218124</v>
+        <v>3016218125</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -2329,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>2016</v>
@@ -2338,18 +2335,18 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>3016218125</v>
+        <v>3016218126</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>23</v>
@@ -2366,16 +2363,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>3016218126</v>
+        <v>3016218127</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>2016</v>
@@ -2384,12 +2381,12 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>3016218127</v>
+        <v>3016218128</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -2398,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>2016</v>
@@ -2407,21 +2404,21 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>3016218128</v>
+        <v>3016218129</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>2016</v>
@@ -2430,12 +2427,12 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>3016218129</v>
+        <v>3016218130</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -2444,7 +2441,7 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>2016</v>
@@ -2453,12 +2450,12 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>3016218130</v>
+        <v>3016218131</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -2467,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>2016</v>
@@ -2476,21 +2473,21 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>3016218131</v>
+        <v>3016218132</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E67">
         <v>2016</v>
@@ -2504,16 +2501,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>3016218132</v>
+        <v>3016218133</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <v>2016</v>
@@ -2522,21 +2519,21 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>3016218133</v>
+        <v>3016218134</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E69">
         <v>2016</v>
@@ -2545,21 +2542,21 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>3016218134</v>
+        <v>3016218135</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E70">
         <v>2016</v>
@@ -2568,12 +2565,12 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>3016218135</v>
+        <v>3016218136</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
@@ -2582,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>2016</v>
@@ -2591,12 +2588,12 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>3016218136</v>
+        <v>3016218137</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -2605,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>2016</v>
@@ -2614,12 +2611,12 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>3016218137</v>
+        <v>3016218138</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -2628,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>2016</v>
@@ -2637,12 +2634,12 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>3016218138</v>
+        <v>3016218139</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -2651,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E74">
         <v>2016</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>3016218139</v>
+        <v>3016218140</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -2674,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E75">
         <v>2016</v>
@@ -2683,21 +2680,21 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>3016218140</v>
+        <v>3016218141</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>2016</v>
@@ -2711,16 +2708,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>3016218141</v>
+        <v>3016218142</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E77">
         <v>2016</v>
@@ -2729,12 +2726,12 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>3016218142</v>
+        <v>3016218143</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -2743,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E78">
         <v>2016</v>
@@ -2752,12 +2749,12 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>3016218143</v>
+        <v>3016218144</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
@@ -2766,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E79">
         <v>2016</v>
@@ -2775,12 +2772,12 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>3016218144</v>
+        <v>3016218145</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
@@ -2789,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E80">
         <v>2016</v>
@@ -2798,12 +2795,12 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>3016218145</v>
+        <v>3016218146</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
@@ -2812,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E81">
         <v>2016</v>
@@ -2821,12 +2818,12 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>3016218146</v>
+        <v>3016218147</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -2835,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82">
         <v>2016</v>
@@ -2844,21 +2841,21 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>3016218147</v>
+        <v>3016218148</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E83">
         <v>2016</v>
@@ -2867,21 +2864,21 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>3016218148</v>
+        <v>3016218149</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E84">
         <v>2016</v>
@@ -2895,16 +2892,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>3016218149</v>
+        <v>3016218150</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <v>2016</v>
@@ -2913,12 +2910,12 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>3016218150</v>
+        <v>3016218151</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
@@ -2927,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>2016</v>
@@ -2936,21 +2933,21 @@
         <v>3</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>3016218151</v>
+        <v>3016218152</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E87">
         <v>2016</v>
@@ -2959,12 +2956,12 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>3016218152</v>
+        <v>3016218153</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
@@ -2973,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>2016</v>
@@ -2982,12 +2979,12 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>3016218153</v>
+        <v>3016218154</v>
       </c>
       <c r="B89" t="s">
         <v>96</v>
@@ -2996,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E89">
         <v>2016</v>
@@ -3005,44 +3002,44 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>3016218154</v>
+        <v>3015218105</v>
       </c>
       <c r="B90" t="s">
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E90">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>3015218105</v>
+        <v>3015218106</v>
       </c>
       <c r="B91" t="s">
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>2015</v>
@@ -3051,12 +3048,12 @@
         <v>4</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>3015218106</v>
+        <v>3015218107</v>
       </c>
       <c r="B92" t="s">
         <v>99</v>
@@ -3065,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E92">
         <v>2015</v>
@@ -3074,21 +3071,21 @@
         <v>4</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>3015218107</v>
+        <v>3015218108</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <v>2015</v>
@@ -3097,21 +3094,21 @@
         <v>4</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>3015218108</v>
+        <v>3015218109</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>2015</v>
@@ -3120,21 +3117,21 @@
         <v>4</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>3015218109</v>
+        <v>3015218110</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E95">
         <v>2015</v>
@@ -3143,12 +3140,12 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>3015218110</v>
+        <v>3015218111</v>
       </c>
       <c r="B96" t="s">
         <v>103</v>
@@ -3157,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E96">
         <v>2015</v>
@@ -3166,12 +3163,12 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>3015218111</v>
+        <v>3015218112</v>
       </c>
       <c r="B97" t="s">
         <v>104</v>
@@ -3180,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E97">
         <v>2015</v>
@@ -3189,21 +3186,21 @@
         <v>4</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>3015218112</v>
+        <v>3015218113</v>
       </c>
       <c r="B98" t="s">
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>2015</v>
@@ -3212,12 +3209,12 @@
         <v>4</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>3015218113</v>
+        <v>3015218114</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
@@ -3226,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>2015</v>
@@ -3235,12 +3232,12 @@
         <v>4</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>3015218114</v>
+        <v>3015218115</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
@@ -3249,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E100">
         <v>2015</v>
@@ -3258,12 +3255,12 @@
         <v>4</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>3015218115</v>
+        <v>3015218116</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
@@ -3272,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="D101">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>2015</v>
@@ -3281,12 +3278,12 @@
         <v>4</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>3015218116</v>
+        <v>3015218117</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
@@ -3295,7 +3292,7 @@
         <v>8</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>2015</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>3015218117</v>
+        <v>3015218118</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
@@ -3318,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="D103">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E103">
         <v>2015</v>
@@ -3327,12 +3324,12 @@
         <v>4</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>3015218118</v>
+        <v>3015218119</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
@@ -3341,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E104">
         <v>2015</v>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>3015218119</v>
+        <v>3015218120</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
@@ -3364,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E105">
         <v>2015</v>
@@ -3378,7 +3375,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>3015218120</v>
+        <v>3015218121</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
@@ -3387,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>2015</v>
@@ -3396,12 +3393,12 @@
         <v>4</v>
       </c>
       <c r="G106">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>3015218121</v>
+        <v>3015218122</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
@@ -3410,7 +3407,7 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E107">
         <v>2015</v>
@@ -3419,12 +3416,12 @@
         <v>4</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>3015218122</v>
+        <v>3015218123</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
@@ -3433,7 +3430,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E108">
         <v>2015</v>
@@ -3442,12 +3439,12 @@
         <v>4</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>3015218123</v>
+        <v>3015218124</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
@@ -3456,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E109">
         <v>2015</v>
@@ -3465,12 +3462,12 @@
         <v>4</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>3015218124</v>
+        <v>3015218125</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -3479,7 +3476,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E110">
         <v>2015</v>
@@ -3488,21 +3485,21 @@
         <v>4</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>3015218125</v>
+        <v>3015218126</v>
       </c>
       <c r="B111" t="s">
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E111">
         <v>2015</v>
@@ -3511,21 +3508,21 @@
         <v>4</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>3015218126</v>
+        <v>3015218127</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>2015</v>
@@ -3534,12 +3531,12 @@
         <v>4</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>3015218127</v>
+        <v>3015218128</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
@@ -3548,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>2015</v>
@@ -3557,12 +3554,12 @@
         <v>4</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>3015218128</v>
+        <v>3015218129</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
@@ -3571,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E114">
         <v>2015</v>
@@ -3580,12 +3577,12 @@
         <v>4</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>3015218129</v>
+        <v>3015218130</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
@@ -3594,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="D115">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E115">
         <v>2015</v>
@@ -3603,12 +3600,12 @@
         <v>4</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>3015218130</v>
+        <v>3015218131</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -3617,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E116">
         <v>2015</v>
@@ -3626,12 +3623,12 @@
         <v>4</v>
       </c>
       <c r="G116">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>3015218131</v>
+        <v>3015218132</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
@@ -3640,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E117">
         <v>2015</v>
@@ -3649,12 +3646,12 @@
         <v>4</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>3015218132</v>
+        <v>3015218133</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
@@ -3663,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E118">
         <v>2015</v>
@@ -3672,12 +3669,12 @@
         <v>4</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>3015218133</v>
+        <v>3015218134</v>
       </c>
       <c r="B119" t="s">
         <v>126</v>
@@ -3686,7 +3683,7 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E119">
         <v>2015</v>
@@ -3695,12 +3692,12 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>3015218134</v>
+        <v>3015218135</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
@@ -3709,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E120">
         <v>2015</v>
@@ -3718,12 +3715,12 @@
         <v>4</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>3015218135</v>
+        <v>3015218136</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
@@ -3732,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E121">
         <v>2015</v>
@@ -3741,12 +3738,12 @@
         <v>4</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>3015218136</v>
+        <v>3015218137</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
@@ -3755,7 +3752,7 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>2015</v>
@@ -3764,12 +3761,12 @@
         <v>4</v>
       </c>
       <c r="G122">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>3015218137</v>
+        <v>3015218138</v>
       </c>
       <c r="B123" t="s">
         <v>130</v>
@@ -3778,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E123">
         <v>2015</v>
@@ -3787,12 +3784,12 @@
         <v>4</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>3015218138</v>
+        <v>3015218139</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
@@ -3801,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E124">
         <v>2015</v>
@@ -3810,12 +3807,12 @@
         <v>4</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>3015218139</v>
+        <v>3015218140</v>
       </c>
       <c r="B125" t="s">
         <v>132</v>
@@ -3824,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>2015</v>
@@ -3833,12 +3830,12 @@
         <v>4</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>3015218140</v>
+        <v>3015218141</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
@@ -3847,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E126">
         <v>2015</v>
@@ -3856,21 +3853,21 @@
         <v>4</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>3015218141</v>
+        <v>3015218142</v>
       </c>
       <c r="B127" t="s">
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E127">
         <v>2015</v>
@@ -3884,7 +3881,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>3015218142</v>
+        <v>3015218143</v>
       </c>
       <c r="B128" t="s">
         <v>135</v>
@@ -3893,7 +3890,7 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E128">
         <v>2015</v>
@@ -3902,12 +3899,12 @@
         <v>4</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>3015218143</v>
+        <v>3015218144</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
@@ -3916,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="D129">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>2015</v>
@@ -3930,16 +3927,16 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>3015218144</v>
+        <v>3015218145</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E130">
         <v>2015</v>
@@ -3953,7 +3950,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>3015218145</v>
+        <v>3015218146</v>
       </c>
       <c r="B131" t="s">
         <v>138</v>
@@ -3962,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="D131">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E131">
         <v>2015</v>
@@ -3971,21 +3968,21 @@
         <v>4</v>
       </c>
       <c r="G131">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>3015218146</v>
+        <v>3015218147</v>
       </c>
       <c r="B132" t="s">
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E132">
         <v>2015</v>
@@ -3999,16 +3996,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>3015218147</v>
+        <v>3015218148</v>
       </c>
       <c r="B133" t="s">
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E133">
         <v>2015</v>
@@ -4017,12 +4014,12 @@
         <v>4</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>3015218148</v>
+        <v>3015218149</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
@@ -4031,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="D134">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E134">
         <v>2015</v>
@@ -4040,12 +4037,12 @@
         <v>4</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>3015218149</v>
+        <v>3015218150</v>
       </c>
       <c r="B135" t="s">
         <v>142</v>
@@ -4054,7 +4051,7 @@
         <v>8</v>
       </c>
       <c r="D135">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>2015</v>
@@ -4063,21 +4060,21 @@
         <v>4</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>3015218150</v>
+        <v>3015218151</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D136">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E136">
         <v>2015</v>
@@ -4086,21 +4083,21 @@
         <v>4</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>3015218151</v>
+        <v>3015218152</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <v>2015</v>
@@ -4109,21 +4106,21 @@
         <v>4</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>3015218152</v>
+        <v>3015218153</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E138">
         <v>2015</v>
@@ -4132,12 +4129,12 @@
         <v>4</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>3015218153</v>
+        <v>3015218154</v>
       </c>
       <c r="B139" t="s">
         <v>146</v>
@@ -4146,7 +4143,7 @@
         <v>10</v>
       </c>
       <c r="D139">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E139">
         <v>2015</v>
@@ -4155,27 +4152,27 @@
         <v>4</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>3015218154</v>
+        <v>3018218105</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D140">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E140">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>7</v>
@@ -4183,16 +4180,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>3018218105</v>
+        <v>3018218106</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E141">
         <v>2018</v>
@@ -4201,21 +4198,21 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>3018218106</v>
+        <v>3018218107</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D142">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E142">
         <v>2018</v>
@@ -4224,12 +4221,12 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>3018218107</v>
+        <v>3018218108</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
@@ -4238,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E143">
         <v>2018</v>
@@ -4247,12 +4244,12 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>3018218108</v>
+        <v>3018218109</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
@@ -4261,7 +4258,7 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E144">
         <v>2018</v>
@@ -4270,21 +4267,21 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>3018218109</v>
+        <v>3018218110</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E145">
         <v>2018</v>
@@ -4293,21 +4290,21 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>3018218110</v>
+        <v>3018218111</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D146">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E146">
         <v>2018</v>
@@ -4316,21 +4313,21 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>3018218111</v>
+        <v>3018218112</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>2018</v>
@@ -4339,21 +4336,21 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>3018218112</v>
+        <v>3018218113</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>2018</v>
@@ -4362,21 +4359,21 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>3018218113</v>
+        <v>3018218114</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E149">
         <v>2018</v>
@@ -4385,12 +4382,12 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>3018218114</v>
+        <v>3018218115</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
@@ -4399,7 +4396,7 @@
         <v>10</v>
       </c>
       <c r="D150">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E150">
         <v>2018</v>
@@ -4408,12 +4405,12 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>3018218115</v>
+        <v>3018218116</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
@@ -4422,7 +4419,7 @@
         <v>10</v>
       </c>
       <c r="D151">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>2018</v>
@@ -4431,21 +4428,21 @@
         <v>1</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>3018218116</v>
+        <v>3018218117</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>2018</v>
@@ -4454,12 +4451,12 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>3018218117</v>
+        <v>3018218118</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
@@ -4468,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E153">
         <v>2018</v>
@@ -4477,12 +4474,12 @@
         <v>1</v>
       </c>
       <c r="G153">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>3018218118</v>
+        <v>3018218119</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
@@ -4491,7 +4488,7 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E154">
         <v>2018</v>
@@ -4500,12 +4497,12 @@
         <v>1</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>3018218119</v>
+        <v>3018218120</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
@@ -4514,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E155">
         <v>2018</v>
@@ -4523,12 +4520,12 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>3018218120</v>
+        <v>3018218121</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
@@ -4537,7 +4534,7 @@
         <v>8</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>2018</v>
@@ -4546,12 +4543,12 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>3018218121</v>
+        <v>3018218122</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
@@ -4560,7 +4557,7 @@
         <v>8</v>
       </c>
       <c r="D157">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E157">
         <v>2018</v>
@@ -4574,7 +4571,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>3018218122</v>
+        <v>3018218123</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
@@ -4583,7 +4580,7 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E158">
         <v>2018</v>
@@ -4592,21 +4589,21 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>3018218123</v>
+        <v>3018218124</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E159">
         <v>2018</v>
@@ -4620,16 +4617,16 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>3018218124</v>
+        <v>3018218125</v>
       </c>
       <c r="B160" t="s">
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E160">
         <v>2018</v>
@@ -4638,18 +4635,18 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>3018218125</v>
+        <v>3018218126</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>22</v>
@@ -4661,21 +4658,21 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>3018218126</v>
+        <v>3018218127</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D162">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E162">
         <v>2018</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>3018218127</v>
+        <v>3018218128</v>
       </c>
       <c r="B163" t="s">
         <v>170</v>
@@ -4698,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>2018</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>3018218128</v>
+        <v>3018218129</v>
       </c>
       <c r="B164" t="s">
         <v>171</v>
@@ -4721,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E164">
         <v>2018</v>
@@ -4730,12 +4727,12 @@
         <v>1</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>3018218129</v>
+        <v>3018218130</v>
       </c>
       <c r="B165" t="s">
         <v>172</v>
@@ -4744,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="D165">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E165">
         <v>2018</v>
@@ -4753,12 +4750,12 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>3018218130</v>
+        <v>3018218131</v>
       </c>
       <c r="B166" t="s">
         <v>173</v>
@@ -4767,7 +4764,7 @@
         <v>8</v>
       </c>
       <c r="D166">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E166">
         <v>2018</v>
@@ -4776,21 +4773,21 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>3018218131</v>
+        <v>3018218132</v>
       </c>
       <c r="B167" t="s">
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D167">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E167">
         <v>2018</v>
@@ -4799,21 +4796,21 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>3018218132</v>
+        <v>3018218133</v>
       </c>
       <c r="B168" t="s">
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D168">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E168">
         <v>2018</v>
@@ -4822,12 +4819,12 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>3018218133</v>
+        <v>3018218134</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
@@ -4836,7 +4833,7 @@
         <v>8</v>
       </c>
       <c r="D169">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E169">
         <v>2018</v>
@@ -4845,12 +4842,12 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>3018218134</v>
+        <v>3018218135</v>
       </c>
       <c r="B170" t="s">
         <v>177</v>
@@ -4859,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="D170">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E170">
         <v>2018</v>
@@ -4868,21 +4865,21 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>3018218135</v>
+        <v>3018218136</v>
       </c>
       <c r="B171" t="s">
         <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D171">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E171">
         <v>2018</v>
@@ -4891,21 +4888,21 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>3018218136</v>
+        <v>3018218137</v>
       </c>
       <c r="B172" t="s">
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E172">
         <v>2018</v>
@@ -4914,12 +4911,12 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>3018218137</v>
+        <v>3018218138</v>
       </c>
       <c r="B173" t="s">
         <v>180</v>
@@ -4928,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="D173">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E173">
         <v>2018</v>
@@ -4937,12 +4934,12 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>3018218138</v>
+        <v>3018218139</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
@@ -4951,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="D174">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E174">
         <v>2018</v>
@@ -4960,12 +4957,12 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>3018218139</v>
+        <v>3018218140</v>
       </c>
       <c r="B175" t="s">
         <v>182</v>
@@ -4974,7 +4971,7 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E175">
         <v>2018</v>
@@ -4983,12 +4980,12 @@
         <v>1</v>
       </c>
       <c r="G175">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>3018218140</v>
+        <v>3018218141</v>
       </c>
       <c r="B176" t="s">
         <v>183</v>
@@ -4997,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E176">
         <v>2018</v>
@@ -5006,21 +5003,21 @@
         <v>1</v>
       </c>
       <c r="G176">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>3018218141</v>
+        <v>3018218142</v>
       </c>
       <c r="B177" t="s">
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E177">
         <v>2018</v>
@@ -5029,21 +5026,21 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>3018218142</v>
+        <v>3018218143</v>
       </c>
       <c r="B178" t="s">
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D178">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>2018</v>
@@ -5052,12 +5049,12 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>3018218143</v>
+        <v>3018218144</v>
       </c>
       <c r="B179" t="s">
         <v>186</v>
@@ -5066,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E179">
         <v>2018</v>
@@ -5075,12 +5072,12 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>3018218144</v>
+        <v>3018218145</v>
       </c>
       <c r="B180" t="s">
         <v>187</v>
@@ -5089,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E180">
         <v>2018</v>
@@ -5098,12 +5095,12 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>3018218145</v>
+        <v>3018218146</v>
       </c>
       <c r="B181" t="s">
         <v>188</v>
@@ -5112,7 +5109,7 @@
         <v>8</v>
       </c>
       <c r="D181">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E181">
         <v>2018</v>
@@ -5121,21 +5118,21 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>3018218146</v>
+        <v>3018218147</v>
       </c>
       <c r="B182" t="s">
         <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E182">
         <v>2018</v>
@@ -5144,21 +5141,21 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>3018218147</v>
+        <v>3018218148</v>
       </c>
       <c r="B183" t="s">
         <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D183">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E183">
         <v>2018</v>
@@ -5167,21 +5164,21 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>3018218148</v>
+        <v>3018218149</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E184">
         <v>2018</v>
@@ -5190,21 +5187,21 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>3018218149</v>
+        <v>3018218150</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D185">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E185">
         <v>2018</v>
@@ -5213,12 +5210,12 @@
         <v>1</v>
       </c>
       <c r="G185">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>3018218150</v>
+        <v>3018218151</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
@@ -5227,7 +5224,7 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>2018</v>
@@ -5236,12 +5233,12 @@
         <v>1</v>
       </c>
       <c r="G186">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>3018218151</v>
+        <v>3018218152</v>
       </c>
       <c r="B187" t="s">
         <v>194</v>
@@ -5250,7 +5247,7 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E187">
         <v>2018</v>
@@ -5259,21 +5256,21 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>3018218152</v>
+        <v>3018218153</v>
       </c>
       <c r="B188" t="s">
         <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D188">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E188">
         <v>2018</v>
@@ -5282,38 +5279,38 @@
         <v>1</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>3018218153</v>
+        <v>3017216777</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D189">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E189">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F189">
         <v>1</v>
       </c>
       <c r="G189">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>3017216777</v>
+        <v>3017222444</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
@@ -5328,15 +5325,15 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>3017222444</v>
+        <v>3017222445</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -5356,7 +5353,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>3017222445</v>
+        <v>3017206192</v>
       </c>
       <c r="B192" t="s">
         <v>197</v>
@@ -5365,7 +5362,7 @@
         <v>8</v>
       </c>
       <c r="D192">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>2017</v>
@@ -5374,29 +5371,6 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193">
-        <v>3017206192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>198</v>
-      </c>
-      <c r="C193" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>2017</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
         <v>3</v>
       </c>
     </row>

--- a/downloads/students.xlsx
+++ b/downloads/students.xlsx
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>2017</v>
